--- a/biology/Mycologie/Panaeolus_sphinctrinus/Panaeolus_sphinctrinus.xlsx
+++ b/biology/Mycologie/Panaeolus_sphinctrinus/Panaeolus_sphinctrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panaeolus sphinctrinus, le panéole à gaine, aussi connu sous le nom de panéole du fumier, est une espèce de champignons basidiomycètes humicoles croissant en été et à l'automne, dans les champs bien fertilisés par les bouses ou autres crottins.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi les synonymes :
 Agaricus sphinctrinus Fr. (basionyme)
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau (1–5 cm de diamètre) est gris-cendré à gris-brunâtre. Il est caractérisé par sa forme en cloche dite de téton.
 Les lamelles sont gris bleuâtre. 
@@ -581,9 +597,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Panaeolus sphinctrinus a déjà fait l'objet d'observations de toxicité chez certaines personnes[1]. Selon le mycologue Marcel Bon[2], le genre Panaeolus manifeste des propriétés hallucinogènes inconstantes. Il est donc prudent d'éviter de consommer le panéole à gaine.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Panaeolus sphinctrinus a déjà fait l'objet d'observations de toxicité chez certaines personnes. Selon le mycologue Marcel Bon, le genre Panaeolus manifeste des propriétés hallucinogènes inconstantes. Il est donc prudent d'éviter de consommer le panéole à gaine.
 </t>
         </is>
       </c>
